--- a/static/upload/datasuc (copy).xlsx
+++ b/static/upload/datasuc (copy).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">student_id</t>
   </si>
@@ -50,14 +50,21 @@
   </si>
   <si>
     <t xml:space="preserve">anhntc.89@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+84974707115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim Jong Un</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -104,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -113,31 +120,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFF7F7F7"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF7F7F7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF7F7F7"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF7F7F7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFF7F7F7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF7F7F7"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF7F7F7"/>
-      </bottom>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -166,21 +152,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -192,66 +186,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF7F7F7"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -260,21 +194,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="26.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1018" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="1" width="26.81"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="11" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1018" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -297,17 +233,28 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>12345</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
